--- a/data/two way repeated ANOVA/mx 255530 Jan Schilling_Project 1_ mouse serum_04-2016_submit_4.29.2016.xlsx
+++ b/data/two way repeated ANOVA/mx 255530 Jan Schilling_Project 1_ mouse serum_04-2016_submit_4.29.2016.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="848">
   <si>
     <t/>
   </si>
@@ -2566,6 +2566,9 @@
   </si>
   <si>
     <t>KnownorUnknown</t>
+  </si>
+  <si>
+    <t>subjectID</t>
   </si>
 </sst>
 </file>
@@ -3080,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169:B340"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3181,7 +3184,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.4">
       <c r="J2" s="7" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="K2">
         <v>1</v>
